--- a/medicine/Psychotrope/Concours_de_sommellerie/Concours_de_sommellerie.xlsx
+++ b/medicine/Psychotrope/Concours_de_sommellerie/Concours_de_sommellerie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un concours de sommellerie est un concours régional, national ou international permettant de sélectionner les meilleurs sommeliers de leur catégorie.
 Les épreuves peuvent comporter des dégustations à l'aveugle de vins et de boissons alcoolisées, ainsi que la connaissance des vignobles, service des boissons, culture générale du vin, réglementations du vin, variétés des cépages, techniques de vinification, etc.
@@ -515,20 +527,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meilleur sommelier du monde
-Institué depuis 1983, en remplacement du Concours International des Échansons qui se tenait depuis 1969, le Concours du Meilleur sommelier du monde se tient tous les trois ans, exception faite pour 2001 qui a été avancé en 2000. Il est organisé par l’Association de la Sommellerie Internationale (ASI), dont le siège est à Paris, dans l’un des états membres de la structure, afin de faire mieux connaitre la profession et de favoriser le perfectionnement de la profession par le biais d'une saine émulation.
+          <t>Meilleur sommelier du monde</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Institué depuis 1983, en remplacement du Concours International des Échansons qui se tenait depuis 1969, le Concours du Meilleur sommelier du monde se tient tous les trois ans, exception faite pour 2001 qui a été avancé en 2000. Il est organisé par l’Association de la Sommellerie Internationale (ASI), dont le siège est à Paris, dans l’un des états membres de la structure, afin de faire mieux connaitre la profession et de favoriser le perfectionnement de la profession par le biais d'une saine émulation.
 			Giuseppe Vaccarini(1978)
 			Serge Dubs(1989)
 			Philippe Faure-Brac(1992)
 			Paolo Basso(2013)
 			Marc Almert(2019)
-Meilleur sommelier d'Europe et d'Afrique
-Le concours du « Meilleur sommelier d'Europe » était nommé Trophée Ruinart jusqu'en 2006. Depuis 2017, ce concours est également ouvert aux sommeliers de l'ensemble des pays africains et devient à cette occasion le concours de « Meilleur sommelier d'Europe et d'Afrique ».
-Meilleur sommelier des Amériques
-Le concours était nommé Trophée Ruinart jusqu'en 2004.
-Meilleur sommelier d'Asie et d'Océanie
-Grand Prix Sopexa du Meilleur Sommelier International en Vins &amp; Spiritueux de France
-Liste des lauréats :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Concours internationaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier d'Europe et d'Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concours du « Meilleur sommelier d'Europe » était nommé Trophée Ruinart jusqu'en 2006. Depuis 2017, ce concours est également ouvert aux sommeliers de l'ensemble des pays africains et devient à cette occasion le concours de « Meilleur sommelier d'Europe et d'Afrique ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Concours internationaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier des Amériques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concours était nommé Trophée Ruinart jusqu'en 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Concours internationaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grand Prix Sopexa du Meilleur Sommelier International en Vins &amp; Spiritueux de France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats :
 1986 : Philippe Nusswitz ( France)
 1988 : Larry Stone ( États-Unis)
 1990 : Olivier Poussier ( France)
@@ -539,35 +660,43 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meilleur sommelier de France
-Catégorie Sommelier
-Liste des lauréats[1],[2],[8] :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier de France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Catégorie Sommelier</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats :
 1961 : Jean Chauchée
 1962 : Henri Guygot
 1963 : M. Rouby
@@ -604,8 +733,47 @@
 			Pascal Leonetti(2006)
 			Manuel Peyrondet(2008)
 			Florent Martin(2020)
-Catégorie Maitre d'Hôtel-Sommelier
-Liste des lauréats[1],[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier de France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Catégorie Maitre d'Hôtel-Sommelier</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats, :
 1962 : Gérard Angelovicci
 1963 : Roger Brunet
 1964 : Paul Brunet
@@ -613,8 +781,47 @@
 1978 : Marcel Perinet
 1980 : Gilbert Mestrallet
 1983 : Gérard Mallet
-Catégorie Restaurateur-Sommelier
-Liste des lauréats[1],[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier de France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Catégorie Restaurateur-Sommelier</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats, :
 1962 : Roger Borgeot
 1963 : Georges Pleynet
 1964 : Roger Bertucat
@@ -626,10 +833,44 @@
 1978 : Danièle Carre-Cartal
 1980 : Maryse Allarousse
 1983 : Jean-Luc Feutry
-Meilleur ouvrier de France Sommelier
-Meilleur jeune sommelier de France
-Initialement nommé Trophée Ruinart, Trophée Duval-Leroy depuis 2009.
-Liste des lauréats[1],[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Meilleur jeune sommelier de France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement nommé Trophée Ruinart, Trophée Duval-Leroy depuis 2009.
+Liste des lauréats, :
 1979 : Pierre Paillardon
 1980 : Anne-Marie Quaranta
 1981 : Hervé Bizeul
@@ -664,9 +905,44 @@
 2019 : Charlotte Guyot
 2021 : Clément Delécluse
 2023 : Marie Wodecki
-Master of Port
-Le titre de « Master of Port » est attribué en France à un sommelier de vins de Porto. Le premier « Master of Port » a été lancé en 1988 à l’initiative du Champagne Taittinger. Il est organisé par le SGMP (Syndicat des Grandes Marques de Porto) en France avec le soutien technique de l'UDSF (Union De la Sommellerie Française) et l'Institut des Vins du Douro et de Porto en associant des marques de porto.
-Liste des lauréats[1],[12] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Master of Port</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre de « Master of Port » est attribué en France à un sommelier de vins de Porto. Le premier « Master of Port » a été lancé en 1988 à l’initiative du Champagne Taittinger. Il est organisé par le SGMP (Syndicat des Grandes Marques de Porto) en France avec le soutien technique de l'UDSF (Union De la Sommellerie Française) et l'Institut des Vins du Douro et de Porto en associant des marques de porto.
+Liste des lauréats, :
 1988 : Serge Dubs
 1989 : Jean-Marc Burg
 1990 : Stéphane Trapier
@@ -691,42 +967,82 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meilleur sommelier du Canada
-Liste des lauréats :
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier du Canada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats :
 2006 : Véronique Rivest
 2012 : Véronique Rivest
 2015 : Élyse Lambert
 2017 : Carl Villeneuve Lepage
 2020 : Pier-Alexis Soulière[n 2]
 2023 : Joris Gutierrez Garcia
-Meilleur sommelier du Québec
-Liste des lauréats[13] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier du Québec</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats :
 1990 : François Chartier
 1991 : François Chartier
 1993 : Jean-Philippe Lefèbvre
@@ -746,34 +1062,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meilleur sommelier de Belgique
-Liste des lauréats[14] :
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier de Belgique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats :
 1960 : Louis Dobbelaere
 1961 : Oreste Bonola
 1962 : Jean Everard
@@ -840,34 +1161,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_de_sommellerie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meilleur sommelier de Suisse
-Liste des lauréats[15] :
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Meilleur sommelier de Suisse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats :
 1986 : Marc Dekegel
 1987 : Myriam Broggi
 1988 : Marc Perrey
